--- a/数据整理/stocks/其他/LOW-劳氏.xlsx
+++ b/数据整理/stocks/其他/LOW-劳氏.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/LOW-劳氏.xlsx
+++ b/数据整理/stocks/其他/LOW-劳氏.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1030,4 +1031,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/LOW-劳氏.xlsx
+++ b/数据整理/stocks/其他/LOW-劳氏.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/LOW-劳氏.xlsx
+++ b/数据整理/stocks/其他/LOW-劳氏.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1210,7 +1211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,17 +1222,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1241,14 +1262,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.25</v>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1746</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1257,14 +1300,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.22</v>
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1376</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1273,14 +1338,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="5">
@@ -1289,13 +1460,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.17</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/LOW-劳氏.xlsx
+++ b/数据整理/stocks/其他/LOW-劳氏.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1381,7 +1382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1392,17 +1393,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1412,14 +1433,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.34</v>
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1428,14 +1471,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.25</v>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1444,14 +1509,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
@@ -1460,14 +1631,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="6">
@@ -1476,13 +1647,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.17</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/LOW-劳氏.xlsx
+++ b/数据整理/stocks/其他/LOW-劳氏.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1552,7 +1553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1563,17 +1564,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1583,14 +1604,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.24</v>
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1599,14 +1642,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.34</v>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1615,14 +1680,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.25</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="5">
@@ -1631,14 +1802,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6">
@@ -1647,14 +1818,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="7">
@@ -1663,13 +1834,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.17</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/LOW-劳氏.xlsx
+++ b/数据整理/stocks/其他/LOW-劳氏.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,167 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002423</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0787</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162415</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0787</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009975</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0103</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -627,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -688,22 +666,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1025</t>
+          <t>0.1144</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -726,22 +704,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1025</t>
+          <t>0.0917</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -764,102 +742,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0111</t>
+          <t>0.0228</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>096001</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成标普500等权重指数(QDII)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.29</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0064</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519981</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长信美国标准普尔100等权重指数增强(QDII)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.99</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -894,7 +796,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -934,22 +836,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>3.11</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.65</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1042</t>
+          <t>0.1126</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -972,22 +874,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>3.11</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.65</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1042</t>
+          <t>0.1126</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1010,22 +912,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0111</t>
+          <t>0.0190</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1064,7 +966,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1104,22 +1006,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1176</t>
+          <t>0.1746</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1147,17 +1049,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1176</t>
+          <t>0.1376</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1180,22 +1082,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0187</t>
+          <t>0.0292</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1234,7 +1136,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1274,22 +1176,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1746</t>
+          <t>0.1176</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1317,17 +1219,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1376</t>
+          <t>0.1176</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1350,22 +1252,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0292</t>
+          <t>0.0187</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1404,7 +1306,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1444,22 +1346,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1126</t>
+          <t>0.1042</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1482,22 +1384,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1126</t>
+          <t>0.1042</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1520,22 +1422,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0190</t>
+          <t>0.0111</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1553,7 +1455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1574,7 +1476,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1614,22 +1516,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1144</t>
+          <t>0.1025</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1652,22 +1554,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0917</t>
+          <t>0.1025</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1690,26 +1592,102 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0228</t>
+          <t>0.0111</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>096001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成标普500等权重指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519981</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1723,144 +1701,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.23</v>
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.24</v>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.17</v>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/LOW-劳氏.xlsx
+++ b/数据整理/stocks/其他/LOW-劳氏.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.25</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -661,31 +678,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+          <t>华宝标普美国品质消费股票（LOF）美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1144</t>
+          <t>0.1382</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -699,31 +716,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+          <t>华宝标普美国品质消费股票（LOF）人民币A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0917</t>
+          <t>0.1101</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -737,31 +754,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+          <t>华宝标普美国品质消费股票（LOF）人民币C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0228</t>
+          <t>0.0281</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -836,22 +853,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1126</t>
+          <t>0.1144</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -874,22 +891,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1126</t>
+          <t>0.0917</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -912,22 +929,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0190</t>
+          <t>0.0228</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -996,32 +1013,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162415</t>
+          <t>002423</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1746</t>
+          <t>0.1126</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1034,32 +1051,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002423</t>
+          <t>162415</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1376</t>
+          <t>0.1126</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1082,22 +1099,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0292</t>
+          <t>0.0190</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1136,7 +1153,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1176,22 +1193,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1176</t>
+          <t>0.1746</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1219,17 +1236,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1176</t>
+          <t>0.1376</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1252,22 +1269,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0187</t>
+          <t>0.0292</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1336,32 +1353,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002423</t>
+          <t>162415</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1042</t>
+          <t>0.1176</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1374,32 +1391,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162415</t>
+          <t>002423</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1042</t>
+          <t>0.1176</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1422,22 +1439,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0111</t>
+          <t>0.0187</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1450,6 +1467,176 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1695,7 +1882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/LOW-劳氏.xlsx
+++ b/数据整理/stocks/其他/LOW-劳氏.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.25</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,204 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,12 +870,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -698,11 +885,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1382</t>
+          <t>0.1486</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -726,7 +913,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -740,7 +927,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -759,12 +946,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -774,11 +961,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0281</t>
+          <t>0.0385</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -848,31 +1035,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+          <t>华宝标普美国品质消费股票（LOF）美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1144</t>
+          <t>0.1382</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -886,31 +1073,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+          <t>华宝标普美国品质消费股票（LOF）人民币A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0917</t>
+          <t>0.1101</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -924,31 +1111,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+          <t>华宝标普美国品质消费股票（LOF）人民币C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0228</t>
+          <t>0.0281</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1023,22 +1210,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1126</t>
+          <t>0.1144</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1061,22 +1248,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1126</t>
+          <t>0.0917</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1099,22 +1286,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0190</t>
+          <t>0.0228</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1183,32 +1370,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162415</t>
+          <t>002423</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1746</t>
+          <t>0.1126</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1221,32 +1408,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002423</t>
+          <t>162415</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1376</t>
+          <t>0.1126</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1269,22 +1456,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0292</t>
+          <t>0.0190</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1323,7 +1510,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1363,22 +1550,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1176</t>
+          <t>0.1746</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1406,17 +1593,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1176</t>
+          <t>0.1376</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1439,22 +1626,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0187</t>
+          <t>0.0292</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1523,32 +1710,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002423</t>
+          <t>162415</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1042</t>
+          <t>0.1176</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1561,32 +1748,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162415</t>
+          <t>002423</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1042</t>
+          <t>0.1176</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1609,22 +1796,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0111</t>
+          <t>0.0187</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1637,6 +1824,176 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1880,174 +2237,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002423</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0787</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>162415</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0787</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009975</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0103</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>